--- a/Test Execution/Preethi/Bug_zoho.xlsx
+++ b/Test Execution/Preethi/Bug_zoho.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="IP" sheetId="2" r:id="rId2"/>
     <sheet name="Store" sheetId="3" r:id="rId3"/>
+    <sheet name="OP" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="keytitle" localSheetId="1">IP!$E$2</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="226">
   <si>
     <t>Sl No:</t>
   </si>
@@ -735,6 +736,414 @@
   </si>
   <si>
     <t>EQ1-190</t>
+  </si>
+  <si>
+    <t>TC_id</t>
+  </si>
+  <si>
+    <t>Upload unsupporting file in Patient photo upload in Registration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select "Outpatient" from Application selector
+4)Select the Appointment List tab on right top of the out patient page.
+5) Select Mark Arrival icon of any of the Patient in the list
+6) Select Capture Photo on the Registration pop up displayed
+7) Select any unsupporting file (.xls,doc )from folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error Message should be displayed showing showing the type of file to be uploaded</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No message is displaying</t>
+    </r>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_007</t>
+  </si>
+  <si>
+    <t>Alert message is displaying on top of the page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select "Outpatient" from Application selector
+4)Select "Patient" search
+5) Enter an invalid entry in any of the searh field and verify the alert messgae</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Screen Resolution: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1360x768
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Browser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Google Chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operating System: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Window 10, Windows 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alert message should be displayed on middle of the page with unique format in all modules</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alert message is displaying on top of the page</t>
+    </r>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_013</t>
+  </si>
+  <si>
+    <t>No Alert message is displaying for First Name field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select "Outpatient" from Application selector
+4) Select Menu&gt;&gt;Registration&gt;&gt;OP Visit
+5) Enter Patient Id and press enter
+6) Select Patient Edit Icon
+7) In PAtient Edit pop up, Remove first name and click save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alert messageto enter First name should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No Message is displaying and data saved successfully message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import data is not working </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select "Outpatient" from Application selector
+4) Select Menu&gt;&gt;Registration&gt;&gt;OP Visit
+5) Enter Patient Id and press enter
+6) Select Patient Edit Icon
+7) Verify Import Patient option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not working</t>
+    </r>
+  </si>
+  <si>
+    <t>Some Patient Information details is not saving</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select "Outpatient" from Application selector
+4) Select Menu&gt;&gt;Registration&gt;&gt;OP Visit
+5) Enter Patient Id and press enter
+6) Select Patient Edit Icon
+7) Enter Patient and Personal Information details and select save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entered data should be saved successfully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blood group, Religion,patient class, Source of information,Religion, Relationship, state, taluk is not saving</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Details to import should be displayed</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -835,7 +1244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -843,11 +1252,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,6 +1297,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2035,6 +2473,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1256634</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="B_007.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695034" y="4714875"/>
+          <a:ext cx="7363490" cy="3362324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44147</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Patient_search_alert.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4892372" y="13525500"/>
+          <a:ext cx="7347253" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2322,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
@@ -4558,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4968,4 +5487,271 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="118.5" customHeight="1">
+      <c r="B3" s="1"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="E5" s="3"/>
+      <c r="F5" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="65.25" customHeight="1">
+      <c r="F8" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="F10" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="135">
+      <c r="B32" s="1"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="75">
+      <c r="E34" s="3"/>
+      <c r="F34" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="60">
+      <c r="F37" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="45">
+      <c r="F39" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" ht="150">
+      <c r="B62" s="1"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="75">
+      <c r="E64" s="3"/>
+      <c r="F64" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="45">
+      <c r="F67" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="60">
+      <c r="F69" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" ht="150">
+      <c r="B73" s="1"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="75">
+      <c r="E75" s="3"/>
+      <c r="F75" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="45">
+      <c r="F78" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="45">
+      <c r="F80" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:6" ht="150">
+      <c r="B84" s="1"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="75">
+      <c r="E86" s="3"/>
+      <c r="F86" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="45">
+      <c r="F89" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="60">
+      <c r="F91" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Test Execution/Preethi/Bug_zoho.xlsx
+++ b/Test Execution/Preethi/Bug_zoho.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="253">
   <si>
     <t>Sl No:</t>
   </si>
@@ -948,37 +948,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps to Reproduce:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1) Launch Application
-URL: http://mediwarecloud.com/mediwareqc
-2) Username: opuser, password: 123
-3) Select "Outpatient" from Application selector
-4) Select Menu&gt;&gt;Registration&gt;&gt;OP Visit
-5) Enter Patient Id and press enter
-6) Select Patient Edit Icon
-7) In PAtient Edit pop up, Remove first name and click save</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Expected Result: 
 </t>
     </r>
@@ -1011,40 +980,6 @@
   </si>
   <si>
     <t>MED_Out Patient_TC_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Import data is not working </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps to Reproduce:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1) Launch Application
-URL: http://mediwarecloud.com/mediwareqc
-2) Username: opuser, password: 123
-3) Select "Outpatient" from Application selector
-4) Select Menu&gt;&gt;Registration&gt;&gt;OP Visit
-5) Enter Patient Id and press enter
-6) Select Patient Edit Icon
-7) Verify Import Patient option</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1145,17 +1080,393 @@
 Details to import should be displayed</t>
     </r>
   </si>
+  <si>
+    <t>opuser can login to other modules which are not assigned</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Navigates to IP Module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shouldnot navigate to IP Module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Navigate to IP module
+url=http://mediwarecloud.com/mediwareqc/IP/IPGraph.aspx
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Todays Appointment list table view is not displaying when no Appointments are scheduled</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+14) Select Appointment list tab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If no Appointments are scheduled, then search view and Appointment list with  alert message No appointments should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Only search option is available. No alert message is displaying</t>
+    </r>
+  </si>
+  <si>
+    <t>Sometimes default error message is displaying  after selecting Appointment tab</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default error message is displaying</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I285</t>
+  </si>
+  <si>
+    <t>EQ1-I286</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select "Outpatient" from Application selector
+4) Select Menu&gt;&gt;Registration&gt;&gt;OP Visit
+5) Enter Patient Id and press enter
+6) Select Patient Edit Icon
+7) In Patient Edit pop up, Remove first name and click save</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import Patient data is not working </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select "Outpatient" from Application selector
+4) Select Menu&gt;&gt;Registration&gt;&gt;OP Visit
+5) Enter Patient Id and press enter
+6) Select Patient Edit Icon
+7) Verify Import Patient data option</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I288</t>
+  </si>
+  <si>
+    <t>EQ1-I306</t>
+  </si>
+  <si>
+    <t>EQ1-I307</t>
+  </si>
+  <si>
+    <t>EQ1-I290</t>
+  </si>
+  <si>
+    <t>Doctors list is not listing in Op visit after checking Cross Consultation option</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Menu&gt;&gt;OP Visit
+5) Enter Patient Id and Press Enter key
+6) Check Cross consultation on top of the po up view 
+7) Doctor (internal) field becomes Active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Doctor Name should be displayed in pop up view</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No Details is listing in Doctor (internal) drop down</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I308</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps to Reproduce:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4)Select Appointment list
+5) Select Various counts displayed on summary information on right pane
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data is not filtering</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selected details count should be filtered</t>
+    </r>
+  </si>
+  <si>
+    <t>Summary information count is not filtering while selecting each options</t>
+  </si>
+  <si>
+    <t>EQ1-I309</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1229,8 +1540,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,6 +1558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,48 +1595,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2551,6 +2880,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>803196</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Appointment_list.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4384596" y="43776900"/>
+          <a:ext cx="8740854" cy="3743324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Appointment_error.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886324" y="52921958"/>
+          <a:ext cx="8562975" cy="3847042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2841,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F526"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A508" workbookViewId="0">
       <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
@@ -5491,10 +5896,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5514,6 +5919,9 @@
       <c r="C1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D1" s="21" t="s">
+        <v>233</v>
+      </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
@@ -5537,10 +5945,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="75">
       <c r="E5" s="3"/>
-      <c r="F5" s="15" t="s">
-        <v>177</v>
+      <c r="F5" s="22" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="65.25" customHeight="1">
@@ -5562,6 +5970,9 @@
       </c>
       <c r="C30" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>234</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>3</v>
@@ -5612,6 +6023,9 @@
       <c r="C60" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D60" s="21" t="s">
+        <v>236</v>
+      </c>
       <c r="E60" s="11" t="s">
         <v>3</v>
       </c>
@@ -5631,8 +6045,8 @@
     <row r="62" spans="1:6" ht="150">
       <c r="B62" s="1"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="15" t="s">
-        <v>214</v>
+      <c r="F62" s="22" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="75">
@@ -5643,12 +6057,12 @@
     </row>
     <row r="67" spans="1:6" ht="45">
       <c r="F67" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="60">
       <c r="F69" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5661,11 +6075,14 @@
       <c r="C71" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D71" s="21" t="s">
+        <v>239</v>
+      </c>
       <c r="E71" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>218</v>
+      <c r="F71" s="21" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5673,15 +6090,15 @@
         <v>201</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="150">
       <c r="B73" s="1"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="15" t="s">
-        <v>219</v>
+      <c r="F73" s="22" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="75">
@@ -5692,12 +6109,12 @@
     </row>
     <row r="78" spans="1:6" ht="45">
       <c r="F78" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="45">
       <c r="F80" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5713,8 +6130,8 @@
       <c r="E82" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>221</v>
+      <c r="F82" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5722,7 +6139,7 @@
         <v>201</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E83" s="12"/>
     </row>
@@ -5730,7 +6147,7 @@
       <c r="B84" s="1"/>
       <c r="E84" s="11"/>
       <c r="F84" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="75">
@@ -5741,12 +6158,265 @@
     </row>
     <row r="89" spans="1:6" ht="45">
       <c r="F89" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="60">
       <c r="F91" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="E95" s="12"/>
+    </row>
+    <row r="96" spans="1:6" ht="120">
+      <c r="B96" s="1"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="75">
+      <c r="E98" s="3"/>
+      <c r="F98" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="45">
+      <c r="F101" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="45">
+      <c r="F103" s="17" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="23"/>
+    </row>
+    <row r="105" spans="1:6" ht="30">
+      <c r="A105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:6" ht="105">
+      <c r="B107" s="1"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="75">
+      <c r="E109" s="3"/>
+      <c r="F109" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="60">
+      <c r="F112" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" ht="45">
+      <c r="F114" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="30">
+      <c r="A137" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" s="18"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:6" ht="105">
+      <c r="B139" s="1"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="75">
+      <c r="E141" s="3"/>
+      <c r="F141" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="60">
+      <c r="F144" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" ht="45">
+      <c r="F146" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30">
+      <c r="A170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1">
+        <v>8</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F170" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B171" s="18"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:6" ht="150">
+      <c r="B172" s="1"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="75">
+      <c r="E174" s="3"/>
+      <c r="F174" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="45">
+      <c r="F177" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="45">
+      <c r="F179" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="1">
+        <v>9</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F181" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B182" s="18"/>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:6" ht="135">
+      <c r="B183" s="1"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="75">
+      <c r="E185" s="3"/>
+      <c r="F185" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="45">
+      <c r="F188" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="45">
+      <c r="F190" s="17" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Test Execution/Preethi/Bug_zoho.xlsx
+++ b/Test Execution/Preethi/Bug_zoho.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="278">
   <si>
     <t>Sl No:</t>
   </si>
@@ -1449,17 +1449,300 @@
   <si>
     <t>EQ1-I309</t>
   </si>
+  <si>
+    <t>All options are visible in Add Policy</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>All options should be available</t>
+  </si>
+  <si>
+    <t>Few options like Medical Record, Lab Result,Radiology Result, Prev Bill View is not displaying</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Registration&gt;&gt;Add Policy
+5) Verify options Available
+</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I364</t>
+  </si>
+  <si>
+    <t>Close button is not working</t>
+  </si>
+  <si>
+    <t>Should close Medical Record pop up</t>
+  </si>
+  <si>
+    <t>Close Button is not working in "Medical Record" in "Add Policy"</t>
+  </si>
+  <si>
+    <t>EQ1-I366</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: dsoft, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Registration&gt;&gt;Add Policy
+5) Select Medical Record</t>
+    </r>
+  </si>
+  <si>
+    <t>Issue in alert message in "Consultation Room"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select "Consultation Room" tab
+5) Click on Consultation room
+6) Select "Consulted" tab on "Assign Consultation Room"
+7) Select any Patient in the list 
+8) Verify Alert message</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+"null had allocated in other room" alert is displaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Display proper alert message</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupportind file upload in Document upload in "New Registration" results in error </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Menu&gt;&gt;Registration&gt;&gt;New Registration
+5) Enter Mandatory fields and select "Documents" tab
+6) Select Card type, card id and upload any unsupporting file format
+7) Verify after selecting tick option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Error page is displaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unsupporting file format alert message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I382</t>
+  </si>
+  <si>
+    <t>Unsupportind file attachment in Insurance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Menu&gt;&gt;Registration&gt;&gt;New Registration
+5) select "Insurance" tab and Enter Mandatory fields
+6) Attach any unsupporting file and select save</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+404 error is displaying</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I388</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1547,6 +1830,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1595,53 +1891,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2956,6 +3262,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>49793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Consultation_room.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="84288893"/>
+          <a:ext cx="7467600" cy="3903082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1239670</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="unsupporting_file_format.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4821070" y="94135574"/>
+          <a:ext cx="7542379" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5896,10 +6278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6419,6 +6801,315 @@
         <v>249</v>
       </c>
     </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="1">
+        <v>9</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B194" s="18"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:6" ht="135">
+      <c r="B195" s="1"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="75">
+      <c r="E197" s="3"/>
+      <c r="F197" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="F200" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="F201" s="25"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="F202" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="F203" s="25"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="F204" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="F205" s="25"/>
+    </row>
+    <row r="206" spans="1:6" ht="26.25">
+      <c r="F206" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="1">
+        <v>10</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F208" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B209" s="18"/>
+      <c r="E209" s="12"/>
+    </row>
+    <row r="210" spans="1:6" ht="120">
+      <c r="B210" s="1"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="75">
+      <c r="E212" s="3"/>
+      <c r="F212" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="F215" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="F216" s="25"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="F217" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="F218" s="25"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="F219" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="F220" s="25"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="F221" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" s="1">
+        <v>11</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D223" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F223" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B224" s="18"/>
+      <c r="E224" s="12"/>
+    </row>
+    <row r="225" spans="2:6" ht="165">
+      <c r="B225" s="1"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="75">
+      <c r="E227" s="3"/>
+      <c r="F227" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" ht="39">
+      <c r="F230" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="F231" s="25"/>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="F232" s="25"/>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="F233" s="25"/>
+    </row>
+    <row r="234" spans="2:6" ht="39">
+      <c r="F234" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="F235" s="25"/>
+    </row>
+    <row r="236" spans="2:6">
+      <c r="F236" s="25"/>
+    </row>
+    <row r="258" spans="1:6" ht="30">
+      <c r="A258" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="1">
+        <v>12</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D258" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F258" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B259" s="18"/>
+      <c r="E259" s="12"/>
+    </row>
+    <row r="260" spans="1:6" ht="150">
+      <c r="B260" s="1"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="75">
+      <c r="E262" s="3"/>
+      <c r="F262" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="39">
+      <c r="F265" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="F266" s="25"/>
+    </row>
+    <row r="267" spans="1:6" ht="51.75">
+      <c r="F267" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="1">
+        <v>13</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D290" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F290" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B291" s="18"/>
+      <c r="E291" s="12"/>
+    </row>
+    <row r="292" spans="1:6" ht="135">
+      <c r="B292" s="1"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="75">
+      <c r="E294" s="3"/>
+      <c r="F294" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="39">
+      <c r="F297" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="F298" s="25"/>
+    </row>
+    <row r="299" spans="1:6" ht="51.75">
+      <c r="F299" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Test Execution/Preethi/Bug_zoho.xlsx
+++ b/Test Execution/Preethi/Bug_zoho.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="317">
   <si>
     <t>Sl No:</t>
   </si>
@@ -1725,17 +1725,585 @@
   <si>
     <t>EQ1-I388</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Screen Resolution: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1360x768
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Browser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Google Chrome Version 74.0.3729.169
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Operating System: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Window 10, Windows 7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Spelling should be correct</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Spelling is wrong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Menu&gt;&gt;Billing&gt;&gt;Advance Entry
+5) Verify spelling</t>
+    </r>
+  </si>
+  <si>
+    <t>Mandatory field entry alert is not displaying if default entry in "Description" is removed</t>
+  </si>
+  <si>
+    <t>Description spelling error in Advance Entry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Menu&gt;&gt;Registration&gt;&gt;New Registration
+5) Remove default entry in description field and save
+6) verify alert message</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I394</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Alert message to enter mandatory field should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+No alert message is displaying</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I395</t>
+  </si>
+  <si>
+    <t>Cannot Add items in "LRO Bill" in out patient</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Select Patient id: NH00000712 Bill no: 000434
+6) Verify ADD ITEM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add item cell should be active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Cell is deactivated</t>
+    </r>
+  </si>
+  <si>
+    <t>Non insured patients are marked as insured in Consolidate bill marking</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Enter a patient id having entry in Pharmacy billing
+5) Patient id: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Insured icon should be displayed only for insurance patients</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Isured icon is displaying for non insured patients</t>
+    </r>
+  </si>
+  <si>
+    <t>In pharmacy billing, Invalid National id message is displaying</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Select Add Bills&gt;Pharmacy
+5) Verify message </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pharmacy bill pop up with patient id and information should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>invalid national id message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>"Something went wrong" is displaying while saving chief surgeon details</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Select Add Bills&gt;Surgery Entry
+5) Enter Surgery,theatre,surgeon,date and select ADD Button
+6) Select surgeon and Type as Chief surgeon and click + icon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>An entry should be generated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Something went wrong" message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I444</t>
+  </si>
+  <si>
+    <t>Cannot handle delete in Pharmacy billing in OP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Delete is not available</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delete option after adding item should be available</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Enter a patient id having entry in Pharmacy billing
+5) Add Item and verify deletion of entered item</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I445</t>
+  </si>
+  <si>
+    <t>"Save" button is not active for editing LRO Bill</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Select Edit option in LRO Bill
+6) Verify Lab and General Billing pop up</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I446</t>
+  </si>
+  <si>
+    <t>EQ1-I447</t>
+  </si>
+  <si>
+    <t>EQ1-I448</t>
+  </si>
+  <si>
+    <t>EQ1-I450</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1843,8 +2411,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1863,8 +2459,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1887,63 +2489,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3338,6 +4045,272 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>100397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="description_spelling.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696450" y="104008622"/>
+          <a:ext cx="7324724" cy="3300028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>16950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="LRO_billing.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="119431875"/>
+          <a:ext cx="7248524" cy="3278699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>533642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Pharmacy_Edit_delete.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10048875" y="123949067"/>
+          <a:ext cx="7229475" cy="3562108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>107799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="bill_not_insured.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="128514324"/>
+          <a:ext cx="7372350" cy="3635525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>237904</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="pharmacy_invalid.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648604" y="133302375"/>
+          <a:ext cx="5381846" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>153916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>362333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="unsupporting_file_format.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10487025" y="138380716"/>
+          <a:ext cx="9277350" cy="4323217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="LRO_save.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="143446500"/>
+          <a:ext cx="6496049" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3628,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F526"/>
   <sheetViews>
-    <sheetView topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="F508" sqref="F508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4847,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F385"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A409" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F365" sqref="F365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5864,8 +6837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6278,10 +7251,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="E290" sqref="E290"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="D370" sqref="D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7110,6 +8083,527 @@
         <v>276</v>
       </c>
     </row>
+    <row r="301" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="302" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A302" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" s="29">
+        <v>14</v>
+      </c>
+      <c r="C302" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D302" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E302" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F302" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A303" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B303" s="36"/>
+      <c r="C303" s="32"/>
+      <c r="D303" s="32"/>
+      <c r="E303" s="37"/>
+      <c r="F303" s="32"/>
+    </row>
+    <row r="304" spans="1:6" ht="120.75" thickBot="1">
+      <c r="A304" s="32"/>
+      <c r="B304" s="38"/>
+      <c r="C304" s="32"/>
+      <c r="D304" s="32"/>
+      <c r="E304" s="33"/>
+      <c r="F304" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A305" s="32"/>
+      <c r="B305" s="32"/>
+      <c r="C305" s="32"/>
+      <c r="D305" s="32"/>
+      <c r="E305" s="32"/>
+      <c r="F305" s="32"/>
+    </row>
+    <row r="306" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A306" s="32"/>
+      <c r="B306" s="32"/>
+      <c r="C306" s="32"/>
+      <c r="D306" s="32"/>
+      <c r="E306" s="30"/>
+      <c r="F306" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A307" s="32"/>
+      <c r="B307" s="32"/>
+      <c r="C307" s="32"/>
+      <c r="D307" s="32"/>
+      <c r="E307" s="32"/>
+      <c r="F307" s="32"/>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A308" s="32"/>
+      <c r="B308" s="32"/>
+      <c r="C308" s="32"/>
+      <c r="D308" s="32"/>
+      <c r="E308" s="32"/>
+      <c r="F308" s="32"/>
+    </row>
+    <row r="309" spans="1:6" ht="39.75" thickBot="1">
+      <c r="A309" s="32"/>
+      <c r="B309" s="32"/>
+      <c r="C309" s="32"/>
+      <c r="D309" s="32"/>
+      <c r="E309" s="32"/>
+      <c r="F309" s="39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A310" s="32"/>
+      <c r="B310" s="32"/>
+      <c r="C310" s="32"/>
+      <c r="D310" s="32"/>
+      <c r="E310" s="32"/>
+      <c r="F310" s="32"/>
+    </row>
+    <row r="311" spans="1:6" ht="52.5" thickBot="1">
+      <c r="A311" s="32"/>
+      <c r="B311" s="32"/>
+      <c r="C311" s="32"/>
+      <c r="D311" s="32"/>
+      <c r="E311" s="32"/>
+      <c r="F311" s="39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="313" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A313" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B313" s="40"/>
+      <c r="C313" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D313" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E313" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F313" s="34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A314" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B314" s="36"/>
+      <c r="C314" s="32"/>
+      <c r="D314" s="32"/>
+      <c r="E314" s="37"/>
+      <c r="F314" s="32"/>
+    </row>
+    <row r="315" spans="1:6" ht="135.75" thickBot="1">
+      <c r="A315" s="32"/>
+      <c r="B315" s="32"/>
+      <c r="C315" s="32"/>
+      <c r="D315" s="32"/>
+      <c r="E315" s="33"/>
+      <c r="F315" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A316" s="32"/>
+      <c r="B316" s="32"/>
+      <c r="C316" s="32"/>
+      <c r="D316" s="32"/>
+      <c r="E316" s="32"/>
+      <c r="F316" s="32"/>
+    </row>
+    <row r="317" spans="1:6" ht="75.75" thickBot="1">
+      <c r="A317" s="32"/>
+      <c r="B317" s="32"/>
+      <c r="C317" s="32"/>
+      <c r="D317" s="32"/>
+      <c r="E317" s="30"/>
+      <c r="F317" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A318" s="32"/>
+      <c r="B318" s="32"/>
+      <c r="C318" s="32"/>
+      <c r="D318" s="32"/>
+      <c r="E318" s="32"/>
+      <c r="F318" s="32"/>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A319" s="32"/>
+      <c r="B319" s="32"/>
+      <c r="C319" s="32"/>
+      <c r="D319" s="32"/>
+      <c r="E319" s="32"/>
+      <c r="F319" s="32"/>
+    </row>
+    <row r="320" spans="1:6" ht="39.75" thickBot="1">
+      <c r="A320" s="32"/>
+      <c r="B320" s="32"/>
+      <c r="C320" s="32"/>
+      <c r="D320" s="32"/>
+      <c r="E320" s="32"/>
+      <c r="F320" s="39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A321" s="32"/>
+      <c r="B321" s="32"/>
+      <c r="C321" s="32"/>
+      <c r="D321" s="32"/>
+      <c r="E321" s="32"/>
+      <c r="F321" s="32"/>
+    </row>
+    <row r="322" spans="1:6" ht="52.5" thickBot="1">
+      <c r="A322" s="32"/>
+      <c r="B322" s="32"/>
+      <c r="C322" s="32"/>
+      <c r="D322" s="32"/>
+      <c r="E322" s="32"/>
+      <c r="F322" s="39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="42"/>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B325" s="1">
+        <v>11</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="E325" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F325" s="41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B326" s="18"/>
+      <c r="E326" s="12"/>
+    </row>
+    <row r="327" spans="1:6" ht="135">
+      <c r="B327" s="1"/>
+      <c r="E327" s="11"/>
+      <c r="F327" s="41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="75">
+      <c r="E329" s="3"/>
+      <c r="F329" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="26.25">
+      <c r="F332" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="F333" s="25"/>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="F334" s="25"/>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="F335" s="25"/>
+    </row>
+    <row r="336" spans="1:6" ht="39">
+      <c r="F336" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D357" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="E357" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F357" s="43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B358" s="18"/>
+      <c r="E358" s="12"/>
+    </row>
+    <row r="359" spans="1:6" ht="135">
+      <c r="B359" s="1"/>
+      <c r="E359" s="11"/>
+      <c r="F359" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="75">
+      <c r="E361" s="3"/>
+      <c r="F361" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="39">
+      <c r="F364" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="F365" s="25"/>
+    </row>
+    <row r="366" spans="1:6" ht="39">
+      <c r="F366" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D368" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E368" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F368" s="41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B369" s="18"/>
+      <c r="E369" s="12"/>
+    </row>
+    <row r="370" spans="1:6" ht="135">
+      <c r="B370" s="1"/>
+      <c r="E370" s="11"/>
+      <c r="F370" s="41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="75">
+      <c r="E372" s="3"/>
+      <c r="F372" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="39">
+      <c r="F375" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="F376" s="25"/>
+    </row>
+    <row r="377" spans="1:6" ht="39">
+      <c r="F377" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D379" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F379" s="41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B380" s="18"/>
+      <c r="E380" s="12"/>
+    </row>
+    <row r="381" spans="1:6" ht="135">
+      <c r="B381" s="1"/>
+      <c r="E381" s="11"/>
+      <c r="F381" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="75">
+      <c r="E383" s="3"/>
+      <c r="F383" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="39">
+      <c r="F386" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="F387" s="25"/>
+    </row>
+    <row r="388" spans="1:6" ht="26.25">
+      <c r="F388" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B390" s="1"/>
+      <c r="C390" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D390" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="E390" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F390" s="41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B391" s="18"/>
+      <c r="E391" s="12"/>
+    </row>
+    <row r="392" spans="1:6" ht="150">
+      <c r="B392" s="1"/>
+      <c r="E392" s="11"/>
+      <c r="F392" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="75">
+      <c r="E394" s="3"/>
+      <c r="F394" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="39">
+      <c r="F397" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="F398" s="25"/>
+    </row>
+    <row r="399" spans="1:6" ht="39">
+      <c r="F399" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D401" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="E401" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F401" s="43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B402" s="18"/>
+      <c r="E402" s="12"/>
+    </row>
+    <row r="403" spans="1:6" ht="135">
+      <c r="B403" s="1"/>
+      <c r="E403" s="11"/>
+      <c r="F403" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="75">
+      <c r="E405" s="3"/>
+      <c r="F405" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="39">
+      <c r="F408" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="F409" s="25"/>
+    </row>
+    <row r="410" spans="1:6" ht="39">
+      <c r="F410" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Test Execution/Preethi/Bug_zoho.xlsx
+++ b/Test Execution/Preethi/Bug_zoho.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="341">
   <si>
     <t>Sl No:</t>
   </si>
@@ -2272,17 +2272,355 @@
   <si>
     <t>EQ1-I450</t>
   </si>
+  <si>
+    <t>"Receipt Print" is not working for Payment Type-Complimentory</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Add Bills &gt;&gt; OP bill
+6) Select "Generate Bill" 
+7) Select Payment type as Complementory, Customer,Doctor and click Save Bill
+8) Print pop up is displayed
+9) Select "Receipt Print"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Print format of Receipt should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not working</t>
+    </r>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_0123</t>
+  </si>
+  <si>
+    <t>EQ1-I454</t>
+  </si>
+  <si>
+    <t>Patient "Reopened" status is not displaying  in OP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Patient "Reopened" Status is not displaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Expected Result
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reopened" status should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Select Menu&gt;&gt;Billing&gt;&gt;Visit Re-open
+6) Search corresponding patient id and select visit Re-open check box
+7) Verify status change
+Patient id: NH00000738</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I457</t>
+  </si>
+  <si>
+    <t>It is possible to enter past date in payment mode as cheque</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Enter patient id and press enter key
+6) Select Add Bills&gt;&gt;OP Bill
+7) Select Generate bill after adding bills
+8) Select Save Bill 
+9) In Payment mode enter amount in cheque field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Past date should not be entered in date field </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Date field validation is missing</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is possible to enter past date in Credit card Expiry date </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Enter patient id and press enter key
+6) Select Add Bills&gt;&gt;OP Bill
+7) Select Generate bill after adding bills
+8) Select Save Bill 
+9) In Payment mode enter amount in credit  field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Past date should not be  entered in expiry date field</t>
+    </r>
+  </si>
+  <si>
+    <t>Partial Pay in OB bill is not working</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Consolidate OP Billing
+5) Enter patient id and press enter key
+6) Select Add Bills&gt;&gt;OP Bill
+7) Select Generate bill after adding bills
+8) Select Save bill
+9) Select "Partial Pay only" option
+10) Enter partial amount as Credit card pay and select ok</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Partial amount deducted should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No partial amount is deducting</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I475</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2553,104 +2891,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4311,6 +4653,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88446</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="cheque.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9499146" y="159553275"/>
+          <a:ext cx="5502729" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7251,10 +7631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F410"/>
+  <dimension ref="A1:F465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="D370" sqref="D370"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8604,6 +8984,264 @@
         <v>304</v>
       </c>
     </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="42"/>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B412" s="1"/>
+      <c r="C412" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D412" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="E412" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F412" s="45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B413" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E413" s="12"/>
+    </row>
+    <row r="414" spans="1:6" ht="195">
+      <c r="B414" s="1"/>
+      <c r="E414" s="11"/>
+      <c r="F414" s="45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="75">
+      <c r="E416" s="3"/>
+      <c r="F416" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="39">
+      <c r="F419" s="24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="F420" s="25"/>
+    </row>
+    <row r="421" spans="1:6" ht="39">
+      <c r="F421" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B423" s="1"/>
+      <c r="C423" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D423" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F423" s="45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B424" s="18"/>
+      <c r="E424" s="12"/>
+    </row>
+    <row r="425" spans="1:6" ht="165">
+      <c r="B425" s="1"/>
+      <c r="E425" s="11"/>
+      <c r="F425" s="45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="75">
+      <c r="E427" s="3"/>
+      <c r="F427" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="39">
+      <c r="F430" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="F431" s="25"/>
+    </row>
+    <row r="432" spans="1:6" ht="39">
+      <c r="F432" s="24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B434" s="1"/>
+      <c r="C434" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D434" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E434" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F434" s="45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B435" s="18"/>
+      <c r="E435" s="12"/>
+    </row>
+    <row r="436" spans="1:6" ht="180">
+      <c r="B436" s="1"/>
+      <c r="E436" s="11"/>
+      <c r="F436" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="75">
+      <c r="E438" s="3"/>
+      <c r="F438" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="39">
+      <c r="F441" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="F442" s="25"/>
+    </row>
+    <row r="443" spans="1:6" ht="39">
+      <c r="F443" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B445" s="1"/>
+      <c r="C445" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D445" s="46"/>
+      <c r="E445" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F445" s="45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B446" s="18"/>
+      <c r="E446" s="12"/>
+    </row>
+    <row r="447" spans="1:6" ht="180">
+      <c r="B447" s="1"/>
+      <c r="E447" s="11"/>
+      <c r="F447" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="75">
+      <c r="E449" s="3"/>
+      <c r="F449" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="39">
+      <c r="F452" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="F453" s="25"/>
+    </row>
+    <row r="454" spans="1:6" ht="39">
+      <c r="F454" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B456" s="1"/>
+      <c r="C456" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D456" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="E456" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F456" s="45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B457" s="18"/>
+      <c r="E457" s="12"/>
+    </row>
+    <row r="458" spans="1:6" ht="195">
+      <c r="B458" s="1"/>
+      <c r="E458" s="11"/>
+      <c r="F458" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="75">
+      <c r="E460" s="3"/>
+      <c r="F460" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="39">
+      <c r="F463" s="24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="F464" s="25"/>
+    </row>
+    <row r="465" spans="6:6" ht="39">
+      <c r="F465" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Test Execution/Preethi/Bug_zoho.xlsx
+++ b/Test Execution/Preethi/Bug_zoho.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="376">
   <si>
     <t>Sl No:</t>
   </si>
@@ -2603,17 +2603,502 @@
   <si>
     <t>EQ1-I475</t>
   </si>
+  <si>
+    <t>Approx. Schedule date and completed date is not displaying in Package details</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Package details
+5) Enter patient id and press enter key
+6) Select any completed procedure from the list
+7)Verify Approx. Schedule date and completed date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Approx. Schedule date and completed date should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Approx. Schedule date and completed date is not displaying</t>
+    </r>
+  </si>
+  <si>
+    <t>Deleted Procedure is not updating in Search result</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;Billing&gt;Billing
+5) Select Search button
+6) Select any procedure bill from the list
+7) Selected bill should be displayed in Procedure pop up and select delete button
+8) Added items should be removed and verify the status of the bill in search list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Status should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Deleted status is not displaying in search list</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I498</t>
+  </si>
+  <si>
+    <t>EQ1-I500</t>
+  </si>
+  <si>
+    <t>Search in "User details" is not working correctly</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;General&gt;&gt;User Details
+5) enter search keyword in search textbox
+6) Verify result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Selected user should be filtered and listed in the list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>User is not listing based on search keyword entered</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I501</t>
+  </si>
+  <si>
+    <t>user details mail is not sending</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;General&gt;&gt;User Details
+5) Select any User from the list and click Preview button
+6) Select Mail option on top of the user list
+7) Enter To address, cc, Subject and click send option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Should send mail to entered mail id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mail is not sending</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I502</t>
+  </si>
+  <si>
+    <t>Print in "Patient Search" is not working correctly</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;General&gt;&gt;Patient search
+5) Enter any patient id and select "Search Patient" button
+6) From the patient list, select Print option
+7) Verify message displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+"Print Failed. File not found" error is displaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Should print the selected patient record</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I506</t>
+  </si>
+  <si>
+    <t>"Search" in Patient wise search is not working correctly</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;General&gt;&gt;Patient wise visit search
+5) Enter from and To Date, Patient id and select  "Show" button
+6) Enter text " Visit" on Search textbox on top right of the page
+Patient id: NH00000302</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Should filter list based on the search keyword entered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Not working correctly</t>
+    </r>
+  </si>
+  <si>
+    <t>Alert message to enter mandatory field "Patient id" is not displaying</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps to Reproduce:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1) Launch Application
+     URL: http://mediwarecloud.com/mediwareqc
+2) Username: opuser, password: 123
+3) Select Out patient from Application selector
+4) Select Menu&gt;&gt;General&gt;&gt;Patient wise visit search
+5) Enter from and To Date, and select  "Show" button
+6) Verify Alert message</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expected Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Alert message to enter Patient id should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual Result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+"No Records found" message is displaying</t>
+    </r>
+  </si>
+  <si>
+    <t>EQ1-I509</t>
+  </si>
+  <si>
+    <t>EQ1-I511</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2891,104 +3376,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4691,6 +5180,234 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>393693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>474</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Approx_date.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="177177693"/>
+          <a:ext cx="6743700" cy="3292482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285719</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="status_missing.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696419" y="182241824"/>
+          <a:ext cx="8715406" cy="4105275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>38597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="user_detail_search.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="188138297"/>
+          <a:ext cx="8667749" cy="2037853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371956</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>156250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>466726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Print_failure.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10392256" y="198238150"/>
+          <a:ext cx="10553219" cy="4120476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>339766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>419099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="patient wise search.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10220325" y="204174766"/>
+          <a:ext cx="6391274" cy="3127333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>540</xdr:row>
+      <xdr:rowOff>461270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="Alert_No_Records.JPG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="209668370"/>
+          <a:ext cx="7820024" cy="3767830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7631,10 +8348,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F465"/>
+  <dimension ref="A1:F548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="E541" sqref="E541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9237,9 +9954,372 @@
     <row r="464" spans="1:6">
       <c r="F464" s="25"/>
     </row>
-    <row r="465" spans="6:6" ht="39">
+    <row r="465" spans="1:6" ht="39">
       <c r="F465" s="24" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="42"/>
+    </row>
+    <row r="468" spans="1:6" ht="30">
+      <c r="A468" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B468" s="1"/>
+      <c r="C468" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D468" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="E468" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F468" s="47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B469" s="18"/>
+      <c r="E469" s="12"/>
+    </row>
+    <row r="470" spans="1:6" ht="150">
+      <c r="B470" s="1"/>
+      <c r="E470" s="11"/>
+      <c r="F470" s="47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="75">
+      <c r="E472" s="3"/>
+      <c r="F472" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="39">
+      <c r="F475" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="F476" s="25"/>
+    </row>
+    <row r="477" spans="1:6" ht="39">
+      <c r="F477" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="F478" s="24"/>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B480" s="1"/>
+      <c r="C480" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D480" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F480" s="47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B481" s="18"/>
+      <c r="E481" s="12"/>
+    </row>
+    <row r="482" spans="1:6" ht="195">
+      <c r="B482" s="1"/>
+      <c r="E482" s="11"/>
+      <c r="F482" s="47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="75">
+      <c r="E484" s="3"/>
+      <c r="F484" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="39">
+      <c r="F487" s="24" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="F488" s="25"/>
+    </row>
+    <row r="489" spans="1:6" ht="39">
+      <c r="F489" s="24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B492" s="1"/>
+      <c r="C492" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D492" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E492" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F492" s="47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B493" s="18"/>
+      <c r="E493" s="12"/>
+    </row>
+    <row r="494" spans="1:6" ht="135">
+      <c r="B494" s="1"/>
+      <c r="E494" s="11"/>
+      <c r="F494" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="75">
+      <c r="E496" s="3"/>
+      <c r="F496" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="39">
+      <c r="F499" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="F500" s="25"/>
+    </row>
+    <row r="501" spans="1:6" ht="39">
+      <c r="F501" s="24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B504" s="1"/>
+      <c r="C504" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D504" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="E504" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F504" s="47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B505" s="18"/>
+      <c r="E505" s="12"/>
+    </row>
+    <row r="506" spans="1:6" ht="150">
+      <c r="B506" s="1"/>
+      <c r="E506" s="11"/>
+      <c r="F506" s="47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" ht="75">
+      <c r="E508" s="3"/>
+      <c r="F508" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" ht="39">
+      <c r="F511" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="F512" s="25"/>
+    </row>
+    <row r="513" spans="1:6" ht="39">
+      <c r="F513" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B515" s="1"/>
+      <c r="C515" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D515" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="E515" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F515" s="47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B516" s="18"/>
+      <c r="E516" s="12"/>
+    </row>
+    <row r="517" spans="1:6" ht="150">
+      <c r="B517" s="1"/>
+      <c r="E517" s="11"/>
+      <c r="F517" s="47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" ht="75">
+      <c r="E519" s="3"/>
+      <c r="F519" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="39">
+      <c r="F522" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="F523" s="25"/>
+    </row>
+    <row r="524" spans="1:6" ht="39">
+      <c r="F524" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B527" s="1"/>
+      <c r="C527" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D527" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="E527" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F527" s="47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B528" s="18"/>
+      <c r="E528" s="12"/>
+    </row>
+    <row r="529" spans="1:6" ht="150">
+      <c r="B529" s="1"/>
+      <c r="E529" s="11"/>
+      <c r="F529" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="45">
+      <c r="E531" s="3"/>
+      <c r="F531" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" ht="39">
+      <c r="F534" s="24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="F535" s="25"/>
+    </row>
+    <row r="536" spans="1:6" ht="39">
+      <c r="F536" s="24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
+      <c r="A539" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B539" s="1"/>
+      <c r="C539" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D539" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="E539" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F539" s="47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="A540" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B540" s="18"/>
+      <c r="E540" s="12"/>
+    </row>
+    <row r="541" spans="1:6" ht="135">
+      <c r="B541" s="1"/>
+      <c r="E541" s="11"/>
+      <c r="F541" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="75">
+      <c r="E543" s="3"/>
+      <c r="F543" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="546" spans="6:6" ht="39">
+      <c r="F546" s="24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="547" spans="6:6">
+      <c r="F547" s="25"/>
+    </row>
+    <row r="548" spans="6:6" ht="39">
+      <c r="F548" s="24" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
